--- a/public/data/historicalprogramming.xlsx
+++ b/public/data/historicalprogramming.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,18 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="842">
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Chief Developer / Company</t>
-  </si>
-  <si>
-    <t>Predecessor(s)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="671">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>creator</t>
   </si>
   <si>
     <t>Plankalkül (concept)</t>
@@ -40,9 +37,6 @@
     <t>Konrad Zuse</t>
   </si>
   <si>
-    <t>none (unique language)</t>
-  </si>
-  <si>
     <t>ENIAC coding system</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>Howard H. Aiken</t>
   </si>
   <si>
-    <t>Analytical Engine order code</t>
-  </si>
-  <si>
     <t>Curry notation system</t>
   </si>
   <si>
@@ -94,27 +85,18 @@
     <t>William F Schmidt, Albert B. Tonik,[3] J.R. Logan</t>
   </si>
   <si>
-    <t>Brief Code</t>
-  </si>
-  <si>
     <t>Birkbeck Assembler</t>
   </si>
   <si>
     <t>Kathleen Booth</t>
   </si>
   <si>
-    <t>ARC</t>
-  </si>
-  <si>
     <t>Superplan</t>
   </si>
   <si>
     <t>Heinz Rutishauser</t>
   </si>
   <si>
-    <t>Plankalkül</t>
-  </si>
-  <si>
     <t>ALGAE</t>
   </si>
   <si>
@@ -133,9 +115,6 @@
     <t>Maurice Wilkes</t>
   </si>
   <si>
-    <t>EDSAC</t>
-  </si>
-  <si>
     <t>Boehm unnamed coding system</t>
   </si>
   <si>
@@ -193,9 +172,6 @@
     <t>Milly Koss</t>
   </si>
   <si>
-    <t>SORT/MERGE</t>
-  </si>
-  <si>
     <t>COMPOOL</t>
   </si>
   <si>
@@ -271,36 +247,24 @@
     <t>SHARE</t>
   </si>
   <si>
-    <t>FORTRAN, A-2</t>
-  </si>
-  <si>
     <t>Freiburger Code[4][5]</t>
   </si>
   <si>
     <t>University of Freiburg</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Sequentielle Formelübersetzung</t>
   </si>
   <si>
     <t>Fritz Bauer and Karl Samelson</t>
   </si>
   <si>
-    <t>Boehm</t>
-  </si>
-  <si>
     <t>IT</t>
   </si>
   <si>
     <t>Team led by Alan Perlis</t>
   </si>
   <si>
-    <t>Laning and Zierler</t>
-  </si>
-  <si>
     <t>PRINT</t>
   </si>
   <si>
@@ -310,18 +274,12 @@
     <t>IPL II (implementation)</t>
   </si>
   <si>
-    <t>IPL I</t>
-  </si>
-  <si>
     <t>LISP (concept)</t>
   </si>
   <si>
     <t>John McCarthy</t>
   </si>
   <si>
-    <t>IPL</t>
-  </si>
-  <si>
     <t>COMTRAN</t>
   </si>
   <si>
@@ -340,9 +298,6 @@
     <t>John W. Backus at IBM</t>
   </si>
   <si>
-    <t>FORTRAN</t>
-  </si>
-  <si>
     <t>UNICODE</t>
   </si>
   <si>
@@ -355,24 +310,15 @@
     <t>Fortran II</t>
   </si>
   <si>
-    <t>FORTRAN I</t>
-  </si>
-  <si>
     <t>ALGOL 58 (IAL)</t>
   </si>
   <si>
     <t>ACM/GAMM</t>
   </si>
   <si>
-    <t>FORTRAN, IT, Sequentielle Formelübersetzung</t>
-  </si>
-  <si>
     <t>IPL V</t>
   </si>
   <si>
-    <t>IPL II</t>
-  </si>
-  <si>
     <t>APT</t>
   </si>
   <si>
@@ -391,18 +337,12 @@
     <t>The CODASYL Committee</t>
   </si>
   <si>
-    <t>FLOW-MATIC, COMTRAN, FACT</t>
-  </si>
-  <si>
     <t>JOVIAL</t>
   </si>
   <si>
     <t>Jules Schwartz at SDC</t>
   </si>
   <si>
-    <t>ALGOL 58</t>
-  </si>
-  <si>
     <t>LISP (implementation)</t>
   </si>
   <si>
@@ -424,18 +364,12 @@
     <t>COBOL 61 (implementation)</t>
   </si>
   <si>
-    <t>FLOW-MATIC, COMTRAN</t>
-  </si>
-  <si>
     <t>COMIT (implementation)</t>
   </si>
   <si>
     <t>FORTRAN IV</t>
   </si>
   <si>
-    <t>FORTRAN II</t>
-  </si>
-  <si>
     <t>APL (concept)</t>
   </si>
   <si>
@@ -451,9 +385,6 @@
     <t>Ralph Griswold, et al.</t>
   </si>
   <si>
-    <t>FORTRAN II, COMIT</t>
-  </si>
-  <si>
     <t>CPL</t>
   </si>
   <si>
@@ -484,39 +415,24 @@
     <t>H. E. Petersen, et al.</t>
   </si>
   <si>
-    <t>MIDAS</t>
-  </si>
-  <si>
     <t>COWSEL</t>
   </si>
   <si>
     <t>Rod Burstall, Robin Popplestone</t>
   </si>
   <si>
-    <t>CPL, LISP</t>
-  </si>
-  <si>
     <t>PL/I (concept)</t>
   </si>
   <si>
-    <t>ALGOL 60, COBOL, FORTRAN</t>
-  </si>
-  <si>
     <t>BASIC</t>
   </si>
   <si>
     <t>John George Kemeny and Thomas Eugene Kurtz at Dartmouth College</t>
   </si>
   <si>
-    <t>FORTRAN II, JOSS</t>
-  </si>
-  <si>
     <t>IBM RPG</t>
   </si>
   <si>
-    <t>FARGO</t>
-  </si>
-  <si>
     <t>Mark-IV</t>
   </si>
   <si>
@@ -529,9 +445,6 @@
     <t>Stanley Cohen at Argonne National Laboratory</t>
   </si>
   <si>
-    <t>Speakeasy</t>
-  </si>
-  <si>
     <t>TRAC (implementation)</t>
   </si>
   <si>
@@ -544,36 +457,24 @@
     <t>RPG II</t>
   </si>
   <si>
-    <t>FARGO, RPG</t>
-  </si>
-  <si>
     <t>MAD/I (concept)</t>
   </si>
   <si>
     <t>University of Michigan</t>
   </si>
   <si>
-    <t>MAD, ALGOL 60, PL/I</t>
-  </si>
-  <si>
     <t>TELCOMP</t>
   </si>
   <si>
     <t>BBN</t>
   </si>
   <si>
-    <t>JOSS</t>
-  </si>
-  <si>
     <t>Atlas Autocode</t>
   </si>
   <si>
     <t>Tony Brooker, Derrick Morris at Manchester University</t>
   </si>
   <si>
-    <t>Algol 60, Autocode</t>
-  </si>
-  <si>
     <t>JOSS II</t>
   </si>
   <si>
@@ -595,9 +496,6 @@
     <t>Peter J. Landin</t>
   </si>
   <si>
-    <t>LISP</t>
-  </si>
-  <si>
     <t>CORAL66</t>
   </si>
   <si>
@@ -616,9 +514,6 @@
     <t>Massachusetts General Hospital</t>
   </si>
   <si>
-    <t>FORTRAN, TELCOMP</t>
-  </si>
-  <si>
     <t>Simula 67 (implementation)</t>
   </si>
   <si>
@@ -631,9 +526,6 @@
     <t>D.G. Bobrow and D.L. Murphy</t>
   </si>
   <si>
-    <t>Lisp</t>
-  </si>
-  <si>
     <t>EXAPT</t>
   </si>
   <si>
@@ -649,9 +541,6 @@
     <t>William McKeeman, et al. at University of California Santa Cruz, California J. J. Horning, et al. at Stanford University</t>
   </si>
   <si>
-    <t>PL/I</t>
-  </si>
-  <si>
     <t>Space Programming Language (SPL)</t>
   </si>
   <si>
@@ -673,9 +562,6 @@
     <t>DEC</t>
   </si>
   <si>
-    <t>DIBOL</t>
-  </si>
-  <si>
     <t>Forth (concept)</t>
   </si>
   <si>
@@ -694,9 +580,6 @@
     <t>Unisys</t>
   </si>
   <si>
-    <t>CRT RPS</t>
-  </si>
-  <si>
     <t>REFAL (implementation)</t>
   </si>
   <si>
@@ -709,18 +592,12 @@
     <t>Steven Caine and E. Kent Gordon, California Institute of Technology</t>
   </si>
   <si>
-    <t>GAP, GPM</t>
-  </si>
-  <si>
     <t>PILOT</t>
   </si>
   <si>
     <t>John Amsden Starkweather, University of California, San Francisco</t>
   </si>
   <si>
-    <t>Computest</t>
-  </si>
-  <si>
     <t>PL/I (implementation)</t>
   </si>
   <si>
@@ -754,9 +631,6 @@
     <t>Edinburgh University</t>
   </si>
   <si>
-    <t>Algol 60, Autocode, Atlas Autocode</t>
-  </si>
-  <si>
     <t>Forth (implementation)</t>
   </si>
   <si>
@@ -775,36 +649,24 @@
     <t>Niklaus Wirth, Kathleen Jensen</t>
   </si>
   <si>
-    <t>ALGOL 60, ALGOL W</t>
-  </si>
-  <si>
     <t>BLISS</t>
   </si>
   <si>
     <t>Wulf, Russell, Habermann at Carnegie Mellon University</t>
   </si>
   <si>
-    <t>ALGOL</t>
-  </si>
-  <si>
     <t>KRL</t>
   </si>
   <si>
     <t>Daniel G. Bobrow at Xerox PARC, Terry Winograd at Stanford University</t>
   </si>
   <si>
-    <t>KM, FRL (MIT)</t>
-  </si>
-  <si>
     <t>Sue</t>
   </si>
   <si>
     <t>Ric Holt et al. at University of Toronto</t>
   </si>
   <si>
-    <t>Pascal, XPL</t>
-  </si>
-  <si>
     <t>Compiler Description Language (CDL)</t>
   </si>
   <si>
@@ -817,27 +679,18 @@
     <t>Alan Kay, Adele Goldberg, Dan Ingalls, Xerox PARC</t>
   </si>
   <si>
-    <t>Simula 67</t>
-  </si>
-  <si>
     <t>PL/M</t>
   </si>
   <si>
     <t>Gary Kildall at Digital Research</t>
   </si>
   <si>
-    <t>PL/I, ALGOL, XPL</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
     <t>Dennis Ritchie</t>
   </si>
   <si>
-    <t>B, BCPL, ALGOL 68</t>
-  </si>
-  <si>
     <t>INTERCAL</t>
   </si>
   <si>
@@ -850,24 +703,15 @@
     <t>Alain Colmerauer</t>
   </si>
   <si>
-    <t>2-level W-Grammar</t>
-  </si>
-  <si>
     <t>Structured Query language (SQL)</t>
   </si>
   <si>
-    <t>ALPHA, Quel (Ingres)</t>
-  </si>
-  <si>
     <t>COMAL</t>
   </si>
   <si>
     <t>Børge Christensen, Benedict Løfstedt</t>
   </si>
   <si>
-    <t>Pascal, BASIC</t>
-  </si>
-  <si>
     <t>ML</t>
   </si>
   <si>
@@ -880,9 +724,6 @@
     <t>Jean Ichbiah et al. at CII Honeywell Bull</t>
   </si>
   <si>
-    <t>Pascal, Sue</t>
-  </si>
-  <si>
     <t>Speakeasy-3</t>
   </si>
   <si>
@@ -895,9 +736,6 @@
     <t>Barbara Liskov</t>
   </si>
   <si>
-    <t>ALGOL 60, Lisp, Simula</t>
-  </si>
-  <si>
     <t>GRASS</t>
   </si>
   <si>
@@ -910,18 +748,12 @@
     <t>MAI BASIC Four Inc.</t>
   </si>
   <si>
-    <t>Business BASIC</t>
-  </si>
-  <si>
     <t>PROSE modeling language</t>
   </si>
   <si>
     <t>CDC 6600 Cybernet Services</t>
   </si>
   <si>
-    <t>SLANG, FORTRAN</t>
-  </si>
-  <si>
     <t>ABC</t>
   </si>
   <si>
@@ -958,9 +790,6 @@
     <t>James S. Miller, Benjamin M. Brosgol et al. at Intermetrics</t>
   </si>
   <si>
-    <t>ALGOL 68, BLISS, ECL, HAL</t>
-  </si>
-  <si>
     <t>Modula</t>
   </si>
   <si>
@@ -979,9 +808,6 @@
     <t>Xerox PARC</t>
   </si>
   <si>
-    <t>Smalltalk-72</t>
-  </si>
-  <si>
     <t>Mesa</t>
   </si>
   <si>
@@ -991,27 +817,18 @@
     <t>Claude A.R. Kagan</t>
   </si>
   <si>
-    <t>LISP, TRAC</t>
-  </si>
-  <si>
     <t>Ratfor</t>
   </si>
   <si>
     <t>Brian Kernighan</t>
   </si>
   <si>
-    <t>C, FORTRAN</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
     <t>John Chambers at Bell Labs</t>
   </si>
   <si>
-    <t>APL, PPL, Scheme</t>
-  </si>
-  <si>
     <t>SAS</t>
   </si>
   <si>
@@ -1042,18 +859,12 @@
     <t>Jack Tramiel</t>
   </si>
   <si>
-    <t>Licensed from Microsoft</t>
-  </si>
-  <si>
     <t>IDL</t>
   </si>
   <si>
     <t>David Stern of Research Systems Inc</t>
   </si>
   <si>
-    <t>Fortran</t>
-  </si>
-  <si>
     <t>Standard MUMPS</t>
   </si>
   <si>
@@ -1069,18 +880,12 @@
     <t>Benjamin M. Brosgol et al. at Intermetrics for US Dept of Defense</t>
   </si>
   <si>
-    <t>ALGOL 68, CS-4</t>
-  </si>
-  <si>
     <t>Blue</t>
   </si>
   <si>
     <t>John B. Goodenough et al. at SofTech for US Dept of Defense</t>
   </si>
   <si>
-    <t>ALGOL 68</t>
-  </si>
-  <si>
     <t>Yellow</t>
   </si>
   <si>
@@ -1114,9 +919,6 @@
     <t>RPG III</t>
   </si>
   <si>
-    <t>FARGO, RPG, RPG II</t>
-  </si>
-  <si>
     <t>HAL/S</t>
   </si>
   <si>
@@ -1144,9 +946,6 @@
     <t>Nevil Brownlee at the University of Auckland</t>
   </si>
   <si>
-    <t>Algol60</t>
-  </si>
-  <si>
     <t>VisiCalc</t>
   </si>
   <si>
@@ -1156,27 +955,18 @@
     <t>Modula-2</t>
   </si>
   <si>
-    <t>Modula, Mesa</t>
-  </si>
-  <si>
     <t>REXX</t>
   </si>
   <si>
     <t>Mike Cowlishaw at IBM</t>
   </si>
   <si>
-    <t>PL/I, BASIC, EXEC 2</t>
-  </si>
-  <si>
     <t>AWK</t>
   </si>
   <si>
     <t>Alfred Aho, Peter J. Weinberger, Brian Kernighan</t>
   </si>
   <si>
-    <t>C, SNOBOL</t>
-  </si>
-  <si>
     <t>Icon (implementation)</t>
   </si>
   <si>
@@ -1192,18 +982,12 @@
     <t>Jean Ichbiah at CII Honeywell Bull</t>
   </si>
   <si>
-    <t>Green</t>
-  </si>
-  <si>
     <t>C with classes</t>
   </si>
   <si>
     <t>Bjarne Stroustrup[7]</t>
   </si>
   <si>
-    <t>C, Simula 67</t>
-  </si>
-  <si>
     <t>Applesoft III</t>
   </si>
   <si>
@@ -1216,18 +1000,12 @@
     <t>Microsoft</t>
   </si>
   <si>
-    <t>Microsoft BASIC</t>
-  </si>
-  <si>
     <t>CBASIC</t>
   </si>
   <si>
     <t>Gordon Eubanks</t>
   </si>
   <si>
-    <t>BASIC, Compiler Systems, Digital Research</t>
-  </si>
-  <si>
     <t>BBC BASIC</t>
   </si>
   <si>
@@ -1249,18 +1027,12 @@
     <t>Chris Gray</t>
   </si>
   <si>
-    <t>Pascal, C, ALGOL 68</t>
-  </si>
-  <si>
     <t>PostScript</t>
   </si>
   <si>
     <t>Warnock</t>
   </si>
   <si>
-    <t>InterPress</t>
-  </si>
-  <si>
     <t>Turing</t>
   </si>
   <si>
@@ -1282,27 +1054,18 @@
     <t>Jean Ichbiah at Alsys</t>
   </si>
   <si>
-    <t>Ada 80, Green</t>
-  </si>
-  <si>
     <t>Objective-C</t>
   </si>
   <si>
     <t>Brad Cox</t>
   </si>
   <si>
-    <t>Smalltalk, C</t>
-  </si>
-  <si>
     <t>C++</t>
   </si>
   <si>
     <t>Bjarne Stroustrup</t>
   </si>
   <si>
-    <t>C with Classes</t>
-  </si>
-  <si>
     <t>True BASIC</t>
   </si>
   <si>
@@ -1315,27 +1078,18 @@
     <t>David May</t>
   </si>
   <si>
-    <t>EPL</t>
-  </si>
-  <si>
     <t>ABAP</t>
   </si>
   <si>
     <t>SAP AG</t>
   </si>
   <si>
-    <t>COBOL</t>
-  </si>
-  <si>
     <t>Korn Shell (ksh)</t>
   </si>
   <si>
     <t>David Korn</t>
   </si>
   <si>
-    <t>sh</t>
-  </si>
-  <si>
     <t>Clascal</t>
   </si>
   <si>
@@ -1348,9 +1102,6 @@
     <t>Nantucket</t>
   </si>
   <si>
-    <t>dBase</t>
-  </si>
-  <si>
     <t>Common Lisp</t>
   </si>
   <si>
@@ -1363,18 +1114,12 @@
     <t>Don Boettner, University of Michigan</t>
   </si>
   <si>
-    <t>MAD</t>
-  </si>
-  <si>
     <t>RPL</t>
   </si>
   <si>
     <t>Hewlett-Packard</t>
   </si>
   <si>
-    <t>Forth, Lisp</t>
-  </si>
-  <si>
     <t>Standard ML</t>
   </si>
   <si>
@@ -1411,18 +1156,12 @@
     <t>Cortex</t>
   </si>
   <si>
-    <t>INFORM</t>
-  </si>
-  <si>
     <t>Eiffel</t>
   </si>
   <si>
     <t>Bertrand Meyer</t>
   </si>
   <si>
-    <t>Simula 67, Ada</t>
-  </si>
-  <si>
     <t>GFA BASIC</t>
   </si>
   <si>
@@ -1459,9 +1198,6 @@
     <t>ANSI/MIL-STD-1815A unchanged</t>
   </si>
   <si>
-    <t>Ada 83</t>
-  </si>
-  <si>
     <t>Self (concept)</t>
   </si>
   <si>
@@ -1483,9 +1219,6 @@
     <t>Larry Wall</t>
   </si>
   <si>
-    <t>C, sed, awk, sh</t>
-  </si>
-  <si>
     <t>Oberon</t>
   </si>
   <si>
@@ -1507,9 +1240,6 @@
     <t>Robert 'Bob' Zale</t>
   </si>
   <si>
-    <t>BASIC/Z</t>
-  </si>
-  <si>
     <t>Clean</t>
   </si>
   <si>
@@ -1519,9 +1249,6 @@
     <t>RPG/400</t>
   </si>
   <si>
-    <t>FARGO, RPG, RPG II, RPG III</t>
-  </si>
-  <si>
     <t>Octave</t>
   </si>
   <si>
@@ -1531,9 +1258,6 @@
     <t>John Ousterhout</t>
   </si>
   <si>
-    <t>Awk, Lisp</t>
-  </si>
-  <si>
     <t>STOS BASIC</t>
   </si>
   <si>
@@ -1546,27 +1270,18 @@
     <t>Simon C. Nash</t>
   </si>
   <si>
-    <t>REXX, Smalltalk</t>
-  </si>
-  <si>
     <t>SPARK</t>
   </si>
   <si>
     <t>Bernard A. Carré</t>
   </si>
   <si>
-    <t>Ada</t>
-  </si>
-  <si>
     <t>A+</t>
   </si>
   <si>
     <t>Arthur Whitney</t>
   </si>
   <si>
-    <t>APL</t>
-  </si>
-  <si>
     <t>Hamilton C shell</t>
   </si>
   <si>
@@ -1579,9 +1294,6 @@
     <t>Anders Hejlsberg at Borland</t>
   </si>
   <si>
-    <t>Turbo Pascal, Object Pascal</t>
-  </si>
-  <si>
     <t>Modula-3</t>
   </si>
   <si>
@@ -1609,9 +1321,6 @@
     <t>Brian Fox</t>
   </si>
   <si>
-    <t>Bourne shell, C shell, Korn shell</t>
-  </si>
-  <si>
     <t>Magik (programming language)</t>
   </si>
   <si>
@@ -1639,27 +1348,18 @@
     <t>Kenneth E. Iverson, Roger Hui at Iverson Software</t>
   </si>
   <si>
-    <t>APL, FP</t>
-  </si>
-  <si>
     <t>Haskell</t>
   </si>
   <si>
     <t>EuLisp</t>
   </si>
   <si>
-    <t>Common Lisp, Scheme</t>
-  </si>
-  <si>
     <t>Z Shell (zsh)</t>
   </si>
   <si>
     <t>Paul Falstad at Princeton University</t>
   </si>
   <si>
-    <t>ksh</t>
-  </si>
-  <si>
     <t>GNU E</t>
   </si>
   <si>
@@ -1678,9 +1378,6 @@
     <t>Guido van Rossum</t>
   </si>
   <si>
-    <t>ABC, ALGOL 68, Icon, Modula-3</t>
-  </si>
-  <si>
     <t>Oz</t>
   </si>
   <si>
@@ -1717,9 +1414,6 @@
     <t>Wouter van Oortmerssen</t>
   </si>
   <si>
-    <t>DEX, C, Modula-2</t>
-  </si>
-  <si>
     <t>Brainfuck</t>
   </si>
   <si>
@@ -1735,18 +1429,12 @@
     <t>K</t>
   </si>
   <si>
-    <t>APL, Lisp</t>
-  </si>
-  <si>
     <t>Lua</t>
   </si>
   <si>
     <t>Roberto Ierusalimschy et al. at Tecgraf, PUC-Rio</t>
   </si>
   <si>
-    <t>Scheme, SNOBOL, Modula, CLU, C++</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -1765,18 +1453,12 @@
     <t>Walter Smith</t>
   </si>
   <si>
-    <t>Self, Dylan</t>
-  </si>
-  <si>
     <t>Claire</t>
   </si>
   <si>
     <t>Yves Caseau</t>
   </si>
   <si>
-    <t>Smalltalk, SETL, OPS5, Lisp, ML, C, LORE, LAURE</t>
-  </si>
-  <si>
     <t>ANSI Common Lisp</t>
   </si>
   <si>
@@ -1786,27 +1468,18 @@
     <t>ABB Group</t>
   </si>
   <si>
-    <t>ARLA</t>
-  </si>
-  <si>
     <t>Pike</t>
   </si>
   <si>
     <t>Fredrik Hübinette et al. at Linköping University</t>
   </si>
   <si>
-    <t>LPC, C, µLPC</t>
-  </si>
-  <si>
     <t>ANS Forth</t>
   </si>
   <si>
     <t>Elizabeth Rather, et al.</t>
   </si>
   <si>
-    <t>Forth</t>
-  </si>
-  <si>
     <t>Ada 95</t>
   </si>
   <si>
@@ -1828,27 +1501,18 @@
     <t>James Gosling at Sun Microsystems</t>
   </si>
   <si>
-    <t>C, Simula 67, C++, Smalltalk, Ada 83, Objective-C, Mesa</t>
-  </si>
-  <si>
     <t>LiveScript</t>
   </si>
   <si>
     <t>Brendan Eich at Netscape</t>
   </si>
   <si>
-    <t>Self, C, Scheme</t>
-  </si>
-  <si>
     <t>Mercury</t>
   </si>
   <si>
     <t>Zoltan Somogyi at University of Melbourne</t>
   </si>
   <si>
-    <t>Prolog, Hope, Haskell</t>
-  </si>
-  <si>
     <t>PHP</t>
   </si>
   <si>
@@ -1861,9 +1525,6 @@
     <t>Yukihiro Matsumoto</t>
   </si>
   <si>
-    <t>Smalltalk, Perl</t>
-  </si>
-  <si>
     <t>JavaScript</t>
   </si>
   <si>
@@ -1873,9 +1534,6 @@
     <t>David Kranz, Steve Ward, Chris Terman at MIT</t>
   </si>
   <si>
-    <t>Lisp, C++, Tcl/Tk, TeX, HTML</t>
-  </si>
-  <si>
     <t>Lasso</t>
   </si>
   <si>
@@ -1888,9 +1546,6 @@
     <t>Karl Glazebrook, Jarle Brinchmann, Tuomas Lukka, and Christian Soeller</t>
   </si>
   <si>
-    <t>APL, Perl</t>
-  </si>
-  <si>
     <t>VBScript</t>
   </si>
   <si>
@@ -1900,9 +1555,6 @@
     <t>INRIA</t>
   </si>
   <si>
-    <t>Caml Light, Standard ML</t>
-  </si>
-  <si>
     <t>NetRexx</t>
   </si>
   <si>
@@ -1921,9 +1573,6 @@
     <t>Mark S. Miller</t>
   </si>
   <si>
-    <t>Joule, Original-E</t>
-  </si>
-  <si>
     <t>Pico</t>
   </si>
   <si>
@@ -1936,9 +1585,6 @@
     <t>Alan Kay, et al. at Apple Computer Inc.</t>
   </si>
   <si>
-    <t>Smalltalk-80, Self</t>
-  </si>
-  <si>
     <t>ECMAScript</t>
   </si>
   <si>
@@ -1951,9 +1597,6 @@
     <t>Philippe Mougin</t>
   </si>
   <si>
-    <t>Smalltalk, APL, Objective-C</t>
-  </si>
-  <si>
     <t>ISLISP</t>
   </si>
   <si>
@@ -1966,27 +1609,18 @@
     <t>Jorge Nunes</t>
   </si>
   <si>
-    <t>Java, Scheme, Tcl</t>
-  </si>
-  <si>
     <t>REBOL</t>
   </si>
   <si>
     <t>Carl Sassenrath, Rebol Technologies</t>
   </si>
   <si>
-    <t>Self, Forth, Lisp, Logo</t>
-  </si>
-  <si>
     <t>Standard C++</t>
   </si>
   <si>
     <t>ANSI/ISO Standard C++</t>
   </si>
   <si>
-    <t>C++, Standard C, C</t>
-  </si>
-  <si>
     <t>M2001</t>
   </si>
   <si>
@@ -1999,9 +1633,6 @@
     <t>Robert Osterlund (then at University of Chicago)</t>
   </si>
   <si>
-    <t>AWK, Perl, Unix shell</t>
-  </si>
-  <si>
     <t>PureBasic</t>
   </si>
   <si>
@@ -2014,27 +1645,18 @@
     <t>Tim Sweeney at Epic Games</t>
   </si>
   <si>
-    <t>C++, Java</t>
-  </si>
-  <si>
     <t>XSLT (+ XPath)</t>
   </si>
   <si>
     <t>W3C, James Clark</t>
   </si>
   <si>
-    <t>DSSSL</t>
-  </si>
-  <si>
     <t>Game Maker Language (GML)</t>
   </si>
   <si>
     <t>Mark Overmars</t>
   </si>
   <si>
-    <t>Game Maker</t>
-  </si>
-  <si>
     <t>Harbour</t>
   </si>
   <si>
@@ -2059,135 +1681,90 @@
     <t>Manfred von Thun</t>
   </si>
   <si>
-    <t>FP, Forth</t>
-  </si>
-  <si>
     <t>XL</t>
   </si>
   <si>
     <t>Christophe de Dinechin</t>
   </si>
   <si>
-    <t>Ada, C++, Lisp</t>
-  </si>
-  <si>
     <t>C#</t>
   </si>
   <si>
     <t>Anders Hejlsberg, Microsoft (ECMA)</t>
   </si>
   <si>
-    <t>C, C++, Java, Delphi, Modula-2</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
     <t>Walter Bright, Digital Mars</t>
   </si>
   <si>
-    <t>C, C++, C#, Java</t>
-  </si>
-  <si>
     <t>Ferite</t>
   </si>
   <si>
     <t>Chris Ross</t>
   </si>
   <si>
-    <t>C, C++, Java, PHP, Python, Ruby, Scheme</t>
-  </si>
-  <si>
     <t>AspectJ</t>
   </si>
   <si>
     <t>Gregor Kiczales, Xerox PARC</t>
   </si>
   <si>
-    <t>Java, Common Lisp</t>
-  </si>
-  <si>
     <t>Processing</t>
   </si>
   <si>
     <t>Casey Reas and Benjamin Fry</t>
   </si>
   <si>
-    <t>Java, C, C++[8]</t>
-  </si>
-  <si>
     <t>Visual Basic .NET</t>
   </si>
   <si>
     <t>RPG IV (RPGLE, ILE RPG, RPG Free)</t>
   </si>
   <si>
-    <t>FARGO, RPG, RPG II, RPG III, RPG/400</t>
-  </si>
-  <si>
     <t>GDScript (GDS)</t>
   </si>
   <si>
     <t>OKAM Studio</t>
   </si>
   <si>
-    <t>Godot</t>
-  </si>
-  <si>
     <t>Io</t>
   </si>
   <si>
     <t>Steve Dekorte</t>
   </si>
   <si>
-    <t>Self, NewtonScript, Lua</t>
-  </si>
-  <si>
     <t>Gosu</t>
   </si>
   <si>
     <t>Guidewire Software</t>
   </si>
   <si>
-    <t>GScript</t>
-  </si>
-  <si>
     <t>Nemerle</t>
   </si>
   <si>
     <t>University of Wrocław</t>
   </si>
   <si>
-    <t>C#, ML, MetaHaskell</t>
-  </si>
-  <si>
     <t>Factor</t>
   </si>
   <si>
     <t>Slava Pestov</t>
   </si>
   <si>
-    <t>Joy, Forth, Lisp</t>
-  </si>
-  <si>
     <t>Falcon</t>
   </si>
   <si>
     <t>Giancarlo Niccolai</t>
   </si>
   <si>
-    <t>C++, Perl, Lua, Smalltalk, PHP, Lisp, Python, Ruby</t>
-  </si>
-  <si>
     <t>Scala</t>
   </si>
   <si>
     <t>Martin Odersky</t>
   </si>
   <si>
-    <t>Smalltalk, Java, Haskell, Standard ML, OCaml</t>
-  </si>
-  <si>
     <t>Squirrel</t>
   </si>
   <si>
@@ -2212,18 +1789,12 @@
     <t>Rodrigo B. de Oliveira</t>
   </si>
   <si>
-    <t>Python, C#</t>
-  </si>
-  <si>
     <t>FreeBASIC</t>
   </si>
   <si>
     <t>Andre Victor</t>
   </si>
   <si>
-    <t>QBasic</t>
-  </si>
-  <si>
     <t>Groovy</t>
   </si>
   <si>
@@ -2242,18 +1813,12 @@
     <t>Don Syme, Microsoft Research</t>
   </si>
   <si>
-    <t>OCaml, C#, Haskell</t>
-  </si>
-  <si>
     <t>Haxe</t>
   </si>
   <si>
     <t>Nicolas Cannasse</t>
   </si>
   <si>
-    <t>ActionScript, OCaml, Java</t>
-  </si>
-  <si>
     <t>Seed7</t>
   </si>
   <si>
@@ -2272,15 +1837,9 @@
     <t>ChuckEsterbrook</t>
   </si>
   <si>
-    <t>Python, C#, Eiffel, Objective-C</t>
-  </si>
-  <si>
     <t>Windows PowerShell</t>
   </si>
   <si>
-    <t>C#, ksh, Perl, CL, DCL, SQL</t>
-  </si>
-  <si>
     <t>OptimJ</t>
   </si>
   <si>
@@ -2299,27 +1858,18 @@
     <t>Ulf Norell</t>
   </si>
   <si>
-    <t>Coq, Epigram, Haskell</t>
-  </si>
-  <si>
     <t>Fantom</t>
   </si>
   <si>
     <t>Brian Frank, Andy Frank</t>
   </si>
   <si>
-    <t>C#, Scala, Ruby, Erlang</t>
-  </si>
-  <si>
     <t>Scratch</t>
   </si>
   <si>
     <t>Mitchel Resnick, John Maloney, Natalie Rusk, Evelyn Eastmond, Tammy Stern, Amon Millner, Jay Silver, and Brian Silverman</t>
   </si>
   <si>
-    <t>Logo, Smalltalk, Squeak, E-Toys, HyperCard, AgentSheets, StarLogo, Tweak, BYOB</t>
-  </si>
-  <si>
     <t>Vala</t>
   </si>
   <si>
@@ -2332,18 +1882,12 @@
     <t>Rich Hickey</t>
   </si>
   <si>
-    <t>Lisp, ML, Haskell, Erlang</t>
-  </si>
-  <si>
     <t>Fortress</t>
   </si>
   <si>
     <t>Guy Steele</t>
   </si>
   <si>
-    <t>Scala, ML, Haskell</t>
-  </si>
-  <si>
     <t>Oberon-07</t>
   </si>
   <si>
@@ -2362,18 +1906,12 @@
     <t>Andreas Rumpf</t>
   </si>
   <si>
-    <t>Python, Lisp, Object Pascal</t>
-  </si>
-  <si>
     <t>Genie</t>
   </si>
   <si>
     <t>Jamie McCracken</t>
   </si>
   <si>
-    <t>Python, Boo, D, Object Pascal</t>
-  </si>
-  <si>
     <t>Pure</t>
   </si>
   <si>
@@ -2383,54 +1921,36 @@
     <t>Google</t>
   </si>
   <si>
-    <t>C, Oberon, Limbo, Smalltalk</t>
-  </si>
-  <si>
     <t>CoffeeScript</t>
   </si>
   <si>
     <t>Jeremy Ashkenas</t>
   </si>
   <si>
-    <t>JavaScript, Ruby, Python, Haskell</t>
-  </si>
-  <si>
     <t>Idris</t>
   </si>
   <si>
     <t>Edwin Brady</t>
   </si>
   <si>
-    <t>Haskell, Agda, Coq</t>
-  </si>
-  <si>
     <t>Parasail</t>
   </si>
   <si>
     <t>S. Tucker Taft, AdaCore</t>
   </si>
   <si>
-    <t>Modula, Ada, Pascal, ML</t>
-  </si>
-  <si>
     <t>Chapel</t>
   </si>
   <si>
     <t>Brad Chamberlain, Cray Inc.</t>
   </si>
   <si>
-    <t>HPF, ZPL</t>
-  </si>
-  <si>
     <t>Rust</t>
   </si>
   <si>
     <t>Graydon Hoare, Mozilla</t>
   </si>
   <si>
-    <t>Alef, C++, Camlp4, Erlang, Hermes, Limbo, Napier, Napier88, Newsqueak, NIL, Sather, Standard ML</t>
-  </si>
-  <si>
     <t>Ceylon</t>
   </si>
   <si>
@@ -2440,27 +1960,18 @@
     <t>Dart</t>
   </si>
   <si>
-    <t>Java, JavaScript, CoffeeScript, Go</t>
-  </si>
-  <si>
     <t>Elm</t>
   </si>
   <si>
     <t>Evan Czaplicki</t>
   </si>
   <si>
-    <t>Haskell, Standard ML, OCaml, F#</t>
-  </si>
-  <si>
     <t>Kotlin</t>
   </si>
   <si>
     <t>JetBrains</t>
   </si>
   <si>
-    <t>Java, Scala, Groovy, C#, Gosu</t>
-  </si>
-  <si>
     <t>C++11</t>
   </si>
   <si>
@@ -2470,54 +1981,36 @@
     <t>Nenad Rakocevic</t>
   </si>
   <si>
-    <t>Rebol, Scala, Lua</t>
-  </si>
-  <si>
     <t>Elixir</t>
   </si>
   <si>
     <t>José Valim</t>
   </si>
   <si>
-    <t>Erlang, Ruby, Clojure</t>
-  </si>
-  <si>
     <t>TypeScript</t>
   </si>
   <si>
     <t>Anders Hejlsberg, Microsoft</t>
   </si>
   <si>
-    <t>JavaScript, CoffeeScript</t>
-  </si>
-  <si>
     <t>Julia</t>
   </si>
   <si>
     <t>Jeff Bezanson, Stefan Karpinski, Viral Shah, Alan Edelman, MIT</t>
   </si>
   <si>
-    <t>MATLAB, Lisp, C, Fortran, Mathematica[10] (strictly its Wolfram Language), Python, Perl, R, Ruby, Lua[11]</t>
-  </si>
-  <si>
     <t>Ada 2012</t>
   </si>
   <si>
     <t>ARA and Ada Europe (ISO/IEC 8652:2012)</t>
   </si>
   <si>
-    <t>Ada 2005, ISO/IEC 8652:1995/Amd 1:2007</t>
-  </si>
-  <si>
     <t>Crystal</t>
   </si>
   <si>
     <t>Ary Borenszweig, Manas Technology Solutions</t>
   </si>
   <si>
-    <t>Ruby, C, Rust, Go, C#, Python</t>
-  </si>
-  <si>
     <t>Hack</t>
   </si>
   <si>
@@ -2530,9 +2023,6 @@
     <t>Apple Inc.</t>
   </si>
   <si>
-    <t>Objective-C, Rust, Haskell, Ruby, Python, C#, CLU</t>
-  </si>
-  <si>
     <t>C++14</t>
   </si>
   <si>
@@ -2543,9 +2033,6 @@
   </si>
   <si>
     <t>Mahmoud Fayed</t>
-  </si>
-  <si>
-    <t>Lua, Python, Ruby, C, C#, BASIC, QML, xBase, Supernova</t>
   </si>
 </sst>
 </file>
@@ -2643,19 +2130,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D366"/>
+  <dimension ref="A1:C366"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F17" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.52040816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.8112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="79.0051020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="84.3163265306123"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.09183673469388"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.09183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.3367346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="84.5765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.66326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2668,22 +2154,16 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1943</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2691,12 +2171,9 @@
         <v>1943</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2705,13 +2182,10 @@
         <v>1946</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2719,13 +2193,10 @@
         <v>1946</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2733,13 +2204,10 @@
         <v>1947</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2747,13 +2215,10 @@
         <v>1948</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2761,13 +2226,10 @@
         <v>1948</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2775,13 +2237,10 @@
         <v>1948</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2789,13 +2248,10 @@
         <v>1949</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2803,13 +2259,10 @@
         <v>1950</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2817,13 +2270,10 @@
         <v>1950</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2831,13 +2281,10 @@
         <v>1951</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2845,13 +2292,10 @@
         <v>1951</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2859,13 +2303,10 @@
         <v>1951</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2873,13 +2314,10 @@
         <v>1951</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2887,13 +2325,10 @@
         <v>1951</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2901,13 +2336,10 @@
         <v>1951</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2915,13 +2347,10 @@
         <v>1951</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2929,13 +2358,10 @@
         <v>1951</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2943,13 +2369,10 @@
         <v>1951</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2957,13 +2380,10 @@
         <v>1951</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2971,13 +2391,10 @@
         <v>1951</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2985,13 +2402,10 @@
         <v>1952</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2999,13 +2413,10 @@
         <v>1952</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3013,13 +2424,10 @@
         <v>1952</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3027,13 +2435,10 @@
         <v>1952</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3041,13 +2446,10 @@
         <v>1953</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3055,13 +2457,10 @@
         <v>1953</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3069,13 +2468,10 @@
         <v>1954</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3083,13 +2479,10 @@
         <v>1954</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3097,13 +2490,10 @@
         <v>1954</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3111,13 +2501,10 @@
         <v>1954</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3125,13 +2512,10 @@
         <v>1954</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3139,13 +2523,10 @@
         <v>1954</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3153,13 +2534,10 @@
         <v>1954</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3167,13 +2545,10 @@
         <v>1955</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3181,10 +2556,10 @@
         <v>1955</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3192,13 +2567,10 @@
         <v>1955</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3206,13 +2578,10 @@
         <v>1955</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3220,13 +2589,10 @@
         <v>1955</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3234,13 +2600,10 @@
         <v>1955</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3248,10 +2611,10 @@
         <v>1955</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3259,13 +2622,10 @@
         <v>1958</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3273,13 +2633,10 @@
         <v>1956</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3287,13 +2644,10 @@
         <v>1957</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3301,13 +2655,10 @@
         <v>1957</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3315,13 +2666,10 @@
         <v>1957</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3329,13 +2677,10 @@
         <v>1957</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3343,10 +2688,7 @@
         <v>1957</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3354,13 +2696,10 @@
         <v>1958</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3368,13 +2707,10 @@
         <v>1958</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3382,13 +2718,10 @@
         <v>1958</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3396,10 +2729,10 @@
         <v>1959</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3407,13 +2740,10 @@
         <v>1959</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3421,13 +2751,10 @@
         <v>1959</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3435,13 +2762,10 @@
         <v>1959</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3449,13 +2773,10 @@
         <v>1959</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3463,13 +2784,10 @@
         <v>1959</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3477,10 +2795,10 @@
         <v>1959</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3488,10 +2806,7 @@
         <v>1960</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3499,13 +2814,10 @@
         <v>1960</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3513,10 +2825,7 @@
         <v>1961</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3524,13 +2833,10 @@
         <v>1962</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3538,13 +2844,10 @@
         <v>1962</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3552,10 +2855,7 @@
         <v>1962</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3563,13 +2863,10 @@
         <v>1962</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3577,13 +2874,10 @@
         <v>1963</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3591,13 +2885,10 @@
         <v>1963</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3605,13 +2896,10 @@
         <v>1963</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3619,13 +2907,10 @@
         <v>1963</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3633,13 +2918,10 @@
         <v>1964</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3647,13 +2929,10 @@
         <v>1964</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3661,13 +2940,10 @@
         <v>1964</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>159</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3675,13 +2951,10 @@
         <v>1964</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3689,13 +2962,10 @@
         <v>1964</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>164</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3703,10 +2973,10 @@
         <v>1964</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3714,13 +2984,10 @@
         <v>1964</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3728,10 +2995,10 @@
         <v>1964</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3739,13 +3006,10 @@
         <v>1964</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3753,7 +3017,7 @@
         <v>1964</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3761,13 +3025,10 @@
         <v>1965</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D82" s="0" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3775,13 +3036,10 @@
         <v>1965</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="D83" s="0" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3789,13 +3047,10 @@
         <v>1965</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3803,13 +3058,10 @@
         <v>1965</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="D85" s="0" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3817,13 +3069,10 @@
         <v>1966</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3831,13 +3080,10 @@
         <v>1966</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="D87" s="0" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3845,10 +3091,7 @@
         <v>1966</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="D88" s="0" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3856,13 +3099,10 @@
         <v>1966</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="D89" s="0" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3870,10 +3110,7 @@
         <v>1966</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="D90" s="0" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3881,13 +3118,10 @@
         <v>1966</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="D91" s="0" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3895,13 +3129,10 @@
         <v>1967</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="D92" s="0" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3909,13 +3140,10 @@
         <v>1967</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="D93" s="0" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3923,13 +3151,10 @@
         <v>1967</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="D94" s="0" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3937,13 +3162,10 @@
         <v>1967</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3951,13 +3173,10 @@
         <v>1967</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="D96" s="0" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3965,13 +3184,10 @@
         <v>1967</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D97" s="0" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3979,13 +3195,10 @@
         <v>1967</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="D98" s="0" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3993,13 +3206,10 @@
         <v>1967</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="D99" s="0" t="s">
-        <v>124</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4007,13 +3217,10 @@
         <v>1968</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="D100" s="0" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4021,13 +3228,10 @@
         <v>1968</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="D101" s="0" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4035,13 +3239,10 @@
         <v>1968</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="D102" s="0" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4049,10 +3250,10 @@
         <v>1968</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4060,13 +3261,10 @@
         <v>1968</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="D104" s="0" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4074,13 +3272,10 @@
         <v>1968</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="D105" s="0" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4088,13 +3283,10 @@
         <v>1968</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="D106" s="0" t="s">
-        <v>6</v>
+        <v>187</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4102,13 +3294,10 @@
         <v>1968</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="D107" s="0" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4116,13 +3305,10 @@
         <v>1968</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="D108" s="0" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4130,13 +3316,10 @@
         <v>1969</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D109" s="0" t="s">
-        <v>159</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4144,12 +3327,9 @@
         <v>1969</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="D110" s="0" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4158,10 +3338,10 @@
         <v>1969</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4169,10 +3349,10 @@
         <v>1969</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4180,10 +3360,10 @@
         <v>1969</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4191,13 +3371,10 @@
         <v>1969</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="D114" s="0" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4205,10 +3382,10 @@
         <v>1970</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4216,13 +3393,10 @@
         <v>1970</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="D116" s="0" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4230,13 +3404,10 @@
         <v>1970</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="D117" s="0" t="s">
-        <v>251</v>
+        <v>208</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4244,13 +3415,10 @@
         <v>1970</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D118" s="0" t="s">
-        <v>254</v>
+        <v>210</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4258,13 +3426,10 @@
         <v>1971</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="D119" s="0" t="s">
-        <v>257</v>
+        <v>212</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4272,13 +3437,10 @@
         <v>1971</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="D120" s="0" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4286,10 +3448,10 @@
         <v>1971</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4297,13 +3459,10 @@
         <v>1972</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="D122" s="0" t="s">
-        <v>265</v>
+        <v>218</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4311,13 +3470,10 @@
         <v>1972</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="D123" s="0" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4325,13 +3481,10 @@
         <v>1972</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="D124" s="0" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4339,13 +3492,10 @@
         <v>1972</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="D125" s="0" t="s">
-        <v>6</v>
+        <v>224</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4353,13 +3503,10 @@
         <v>1972</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>274</v>
+        <v>225</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="D126" s="0" t="s">
-        <v>276</v>
+        <v>226</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4367,13 +3514,10 @@
         <v>1972</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>277</v>
+        <v>227</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D127" s="0" t="s">
-        <v>278</v>
+        <v>82</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4381,13 +3525,10 @@
         <v>1973</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>279</v>
+        <v>228</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="D128" s="0" t="s">
-        <v>281</v>
+        <v>229</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4395,10 +3536,10 @@
         <v>1973</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>282</v>
+        <v>230</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>283</v>
+        <v>231</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4406,13 +3547,10 @@
         <v>1973</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>284</v>
+        <v>232</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="D130" s="0" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4420,13 +3558,10 @@
         <v>1973</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>287</v>
+        <v>234</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="D131" s="0" t="s">
-        <v>167</v>
+        <v>235</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4434,13 +3569,10 @@
         <v>1974</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="D132" s="0" t="s">
-        <v>291</v>
+        <v>237</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4448,13 +3580,10 @@
         <v>1974</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>292</v>
+        <v>238</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="D133" s="0" t="s">
-        <v>160</v>
+        <v>239</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4462,13 +3591,10 @@
         <v>1974</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="D134" s="0" t="s">
-        <v>296</v>
+        <v>241</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4476,13 +3602,10 @@
         <v>1974</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>297</v>
+        <v>242</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="D135" s="0" t="s">
-        <v>299</v>
+        <v>243</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4490,13 +3613,10 @@
         <v>1975</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>300</v>
+        <v>244</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="D136" s="0" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4504,10 +3624,10 @@
         <v>1975</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>302</v>
+        <v>246</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>303</v>
+        <v>247</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4515,13 +3635,10 @@
         <v>1975</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>304</v>
+        <v>248</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="D138" s="0" t="s">
-        <v>299</v>
+        <v>249</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4529,13 +3646,10 @@
         <v>1975</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>306</v>
+        <v>250</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="D139" s="0" t="s">
-        <v>191</v>
+        <v>251</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4543,13 +3657,10 @@
         <v>1975</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>308</v>
+        <v>252</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="D140" s="0" t="s">
-        <v>160</v>
+        <v>253</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4557,13 +3668,10 @@
         <v>1975</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>310</v>
+        <v>254</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="D141" s="0" t="s">
-        <v>312</v>
+        <v>255</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4571,13 +3679,10 @@
         <v>1975</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>313</v>
+        <v>256</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="D142" s="0" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4585,13 +3690,10 @@
         <v>1976</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="D143" s="0" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4599,13 +3701,10 @@
         <v>1976</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="D144" s="0" t="s">
-        <v>319</v>
+        <v>261</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4613,13 +3712,10 @@
         <v>1976</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>320</v>
+        <v>262</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="D145" s="0" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4627,13 +3723,10 @@
         <v>1976</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>321</v>
+        <v>263</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="D146" s="0" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4641,13 +3734,10 @@
         <v>1976</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="D147" s="0" t="s">
-        <v>326</v>
+        <v>266</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4655,13 +3745,10 @@
         <v>1976</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>327</v>
+        <v>267</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="D148" s="0" t="s">
-        <v>329</v>
+        <v>268</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4669,10 +3756,10 @@
         <v>1976</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>330</v>
+        <v>269</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>331</v>
+        <v>270</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4680,13 +3767,10 @@
         <v>1976</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>332</v>
+        <v>271</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="D150" s="0" t="s">
-        <v>160</v>
+        <v>272</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4694,13 +3778,10 @@
         <v>1977</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>334</v>
+        <v>273</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="D151" s="0" t="s">
-        <v>6</v>
+        <v>274</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4708,13 +3789,10 @@
         <v>1977</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>336</v>
+        <v>275</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="D152" s="0" t="s">
-        <v>6</v>
+        <v>276</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4722,13 +3800,10 @@
         <v>1977</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>338</v>
+        <v>277</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="D153" s="0" t="s">
-        <v>340</v>
+        <v>278</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4736,13 +3811,10 @@
         <v>1977</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>341</v>
+        <v>279</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="D154" s="0" t="s">
-        <v>343</v>
+        <v>280</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4750,10 +3822,7 @@
         <v>1977</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="D155" s="0" t="s">
-        <v>196</v>
+        <v>281</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4761,13 +3830,10 @@
         <v>1977</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>345</v>
+        <v>282</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="D156" s="0" t="s">
-        <v>141</v>
+        <v>283</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4775,13 +3841,10 @@
         <v>1977</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>347</v>
+        <v>284</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="D157" s="0" t="s">
-        <v>349</v>
+        <v>285</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4789,13 +3852,10 @@
         <v>1977</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>350</v>
+        <v>286</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>351</v>
-      </c>
-      <c r="D158" s="0" t="s">
-        <v>352</v>
+        <v>287</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4803,13 +3863,10 @@
         <v>1977</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>353</v>
+        <v>288</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="D159" s="0" t="s">
-        <v>352</v>
+        <v>289</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4817,10 +3874,10 @@
         <v>1977</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>355</v>
+        <v>290</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>356</v>
+        <v>291</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4828,13 +3885,10 @@
         <v>1977</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>357</v>
+        <v>292</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>358</v>
-      </c>
-      <c r="D161" s="0" t="s">
-        <v>340</v>
+        <v>293</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4842,13 +3896,10 @@
         <v>1978</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>359</v>
+        <v>294</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="D162" s="0" t="s">
-        <v>117</v>
+        <v>295</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4856,13 +3907,10 @@
         <v>1978</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>361</v>
+        <v>296</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="D163" s="0" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4870,13 +3918,10 @@
         <v>1978</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>363</v>
+        <v>298</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D164" s="0" t="s">
-        <v>364</v>
+        <v>82</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4884,13 +3929,10 @@
         <v>1978</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="D165" s="0" t="s">
-        <v>207</v>
+        <v>300</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4898,13 +3940,10 @@
         <v>1978</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>367</v>
+        <v>301</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>358</v>
-      </c>
-      <c r="D166" s="0" t="s">
-        <v>357</v>
+        <v>293</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4912,10 +3951,10 @@
         <v>1975</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>368</v>
+        <v>302</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>369</v>
+        <v>303</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4923,13 +3962,10 @@
         <v>1978</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>370</v>
+        <v>304</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="D168" s="0" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4937,13 +3973,10 @@
         <v>1978</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>372</v>
+        <v>306</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="D169" s="0" t="s">
-        <v>374</v>
+        <v>307</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4951,13 +3984,10 @@
         <v>1978</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>375</v>
+        <v>308</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="D170" s="0" t="s">
-        <v>6</v>
+        <v>309</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4965,13 +3995,10 @@
         <v>1979</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>377</v>
+        <v>310</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="D171" s="0" t="s">
-        <v>378</v>
+        <v>257</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4979,13 +4006,10 @@
         <v>1979</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>379</v>
+        <v>311</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="D172" s="0" t="s">
-        <v>381</v>
+        <v>312</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4993,13 +4017,10 @@
         <v>1979</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>382</v>
+        <v>313</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="D173" s="0" t="s">
-        <v>384</v>
+        <v>314</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5007,13 +4028,10 @@
         <v>1979</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>385</v>
+        <v>315</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="D174" s="0" t="s">
-        <v>141</v>
+        <v>283</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5021,13 +4039,10 @@
         <v>1979</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>386</v>
+        <v>316</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="D175" s="0" t="s">
-        <v>6</v>
+        <v>317</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5035,13 +4050,10 @@
         <v>1980</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>388</v>
+        <v>318</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="D176" s="0" t="s">
-        <v>390</v>
+        <v>319</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5049,13 +4061,10 @@
         <v>1980</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>391</v>
+        <v>320</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="D177" s="0" t="s">
-        <v>393</v>
+        <v>321</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5063,13 +4072,10 @@
         <v>1980</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="D178" s="0" t="s">
-        <v>367</v>
+        <v>323</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5077,13 +4083,10 @@
         <v>1980</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>396</v>
+        <v>324</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="D179" s="0" t="s">
-        <v>398</v>
+        <v>325</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5091,13 +4094,10 @@
         <v>1980</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>399</v>
+        <v>326</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="D180" s="0" t="s">
-        <v>401</v>
+        <v>327</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5105,13 +4105,10 @@
         <v>1981</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>402</v>
+        <v>328</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="D181" s="0" t="s">
-        <v>160</v>
+        <v>329</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5119,13 +4116,10 @@
         <v>1981</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>404</v>
+        <v>330</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="D182" s="0" t="s">
-        <v>160</v>
+        <v>325</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5133,13 +4127,10 @@
         <v>1982</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>405</v>
+        <v>331</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="D183" s="0" t="s">
-        <v>287</v>
+        <v>332</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5147,13 +4138,10 @@
         <v>1982</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>407</v>
+        <v>333</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>408</v>
-      </c>
-      <c r="D184" s="0" t="s">
-        <v>409</v>
+        <v>334</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5161,13 +4149,10 @@
         <v>1982</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>410</v>
+        <v>335</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>411</v>
-      </c>
-      <c r="D185" s="0" t="s">
-        <v>412</v>
+        <v>336</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5175,13 +4160,10 @@
         <v>1982</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>413</v>
+        <v>337</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>414</v>
-      </c>
-      <c r="D186" s="0" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5189,13 +4171,10 @@
         <v>1983</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>415</v>
+        <v>339</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="D187" s="0" t="s">
-        <v>404</v>
+        <v>325</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5203,13 +4182,10 @@
         <v>1983</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>416</v>
+        <v>340</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>417</v>
-      </c>
-      <c r="D188" s="0" t="s">
-        <v>249</v>
+        <v>341</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5217,13 +4193,10 @@
         <v>1983</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>418</v>
+        <v>342</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="D189" s="0" t="s">
-        <v>420</v>
+        <v>343</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5231,13 +4204,10 @@
         <v>1983</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>421</v>
+        <v>344</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="D190" s="0" t="s">
-        <v>423</v>
+        <v>345</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5245,13 +4215,10 @@
         <v>1983</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>424</v>
+        <v>346</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="D191" s="0" t="s">
-        <v>426</v>
+        <v>347</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5259,13 +4226,10 @@
         <v>1983</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>427</v>
+        <v>348</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>428</v>
-      </c>
-      <c r="D192" s="0" t="s">
-        <v>160</v>
+        <v>349</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5273,13 +4237,10 @@
         <v>1983</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>429</v>
+        <v>350</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="D193" s="0" t="s">
-        <v>431</v>
+        <v>351</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5287,13 +4248,10 @@
         <v>1983</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>432</v>
+        <v>352</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>433</v>
-      </c>
-      <c r="D194" s="0" t="s">
-        <v>434</v>
+        <v>353</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5301,13 +4259,10 @@
         <v>1983</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>435</v>
+        <v>354</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="D195" s="0" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5315,13 +4270,10 @@
         <v>1983</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>438</v>
+        <v>356</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="D196" s="0" t="s">
-        <v>249</v>
+        <v>357</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5329,13 +4281,10 @@
         <v>1984</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>440</v>
+        <v>358</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="D197" s="0" t="s">
-        <v>442</v>
+        <v>359</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5343,13 +4292,10 @@
         <v>1984</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>443</v>
+        <v>360</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="D198" s="0" t="s">
-        <v>191</v>
+        <v>361</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5357,13 +4303,10 @@
         <v>1984</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>445</v>
+        <v>362</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="D199" s="0" t="s">
-        <v>447</v>
+        <v>363</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5371,13 +4314,10 @@
         <v>1984</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>448</v>
+        <v>364</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="D200" s="0" t="s">
-        <v>450</v>
+        <v>365</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5385,10 +4325,7 @@
         <v>1984</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>451</v>
-      </c>
-      <c r="D201" s="0" t="s">
-        <v>282</v>
+        <v>366</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5396,10 +4333,10 @@
         <v>1984</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>452</v>
+        <v>367</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>453</v>
+        <v>368</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5407,13 +4344,10 @@
         <v>1984</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>454</v>
+        <v>369</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="D203" s="0" t="s">
-        <v>160</v>
+        <v>370</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5421,13 +4355,10 @@
         <v>1985</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>456</v>
+        <v>371</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>457</v>
-      </c>
-      <c r="D204" s="0" t="s">
-        <v>442</v>
+        <v>372</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5435,13 +4366,10 @@
         <v>1985</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>458</v>
+        <v>373</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="D205" s="0" t="s">
-        <v>160</v>
+        <v>325</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5449,10 +4377,10 @@
         <v>1986</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>459</v>
+        <v>374</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>460</v>
+        <v>375</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5460,13 +4388,10 @@
         <v>1986</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>461</v>
+        <v>376</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>462</v>
-      </c>
-      <c r="D207" s="0" t="s">
-        <v>463</v>
+        <v>377</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5474,13 +4399,10 @@
         <v>1986</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>464</v>
+        <v>378</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>465</v>
-      </c>
-      <c r="D208" s="0" t="s">
-        <v>466</v>
+        <v>379</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5488,13 +4410,10 @@
         <v>1986</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>467</v>
+        <v>380</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="D209" s="0" t="s">
-        <v>160</v>
+        <v>381</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5502,10 +4421,10 @@
         <v>1986</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>469</v>
+        <v>382</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>470</v>
+        <v>383</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5513,10 +4432,10 @@
         <v>1986</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>471</v>
+        <v>384</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>472</v>
+        <v>385</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5524,10 +4443,10 @@
         <v>1986</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>473</v>
+        <v>386</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>474</v>
+        <v>387</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5535,13 +4454,10 @@
         <v>1986</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>475</v>
+        <v>388</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="D213" s="0" t="s">
-        <v>249</v>
+        <v>357</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5549,10 +4465,7 @@
         <v>1986</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>476</v>
-      </c>
-      <c r="D214" s="0" t="s">
-        <v>269</v>
+        <v>389</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5560,13 +4473,10 @@
         <v>1987</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>477</v>
+        <v>390</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>478</v>
-      </c>
-      <c r="D215" s="0" t="s">
-        <v>479</v>
+        <v>391</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5574,13 +4484,10 @@
         <v>1987</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>480</v>
+        <v>392</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="D216" s="0" t="s">
-        <v>263</v>
+        <v>393</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5588,13 +4495,10 @@
         <v>1987</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>482</v>
+        <v>394</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="D217" s="0" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5602,13 +4506,10 @@
         <v>1987</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>484</v>
+        <v>396</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="D218" s="0" t="s">
-        <v>6</v>
+        <v>357</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5616,13 +4517,10 @@
         <v>1987</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>485</v>
+        <v>397</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>486</v>
-      </c>
-      <c r="D219" s="0" t="s">
-        <v>487</v>
+        <v>398</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5630,13 +4528,10 @@
         <v>1987</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>488</v>
+        <v>399</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="D220" s="0" t="s">
-        <v>377</v>
+        <v>257</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5644,13 +4539,10 @@
         <v>1987</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>489</v>
+        <v>400</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>490</v>
-      </c>
-      <c r="D221" s="0" t="s">
-        <v>274</v>
+        <v>401</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5658,13 +4550,10 @@
         <v>1987</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>491</v>
+        <v>402</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>492</v>
-      </c>
-      <c r="D222" s="0" t="s">
-        <v>6</v>
+        <v>403</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5672,13 +4561,10 @@
         <v>1987</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>493</v>
+        <v>404</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>494</v>
-      </c>
-      <c r="D223" s="0" t="s">
-        <v>495</v>
+        <v>405</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5686,13 +4572,10 @@
         <v>1987</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>496</v>
+        <v>406</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>497</v>
-      </c>
-      <c r="D224" s="0" t="s">
-        <v>6</v>
+        <v>407</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5700,13 +4583,10 @@
         <v>1988</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>498</v>
+        <v>408</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D225" s="0" t="s">
-        <v>499</v>
+        <v>82</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5714,10 +4594,7 @@
         <v>1988</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>500</v>
-      </c>
-      <c r="D226" s="0" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5725,13 +4602,10 @@
         <v>1988</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>501</v>
+        <v>410</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="D227" s="0" t="s">
-        <v>503</v>
+        <v>411</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5739,13 +4613,10 @@
         <v>1988</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>504</v>
+        <v>412</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>505</v>
-      </c>
-      <c r="D228" s="0" t="s">
-        <v>160</v>
+        <v>413</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5753,13 +4624,10 @@
         <v>1988</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>506</v>
+        <v>414</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>507</v>
-      </c>
-      <c r="D229" s="0" t="s">
-        <v>508</v>
+        <v>415</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5767,13 +4635,10 @@
         <v>1988</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>509</v>
+        <v>416</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>510</v>
-      </c>
-      <c r="D230" s="0" t="s">
-        <v>511</v>
+        <v>417</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5781,13 +4646,10 @@
         <v>1988</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>512</v>
+        <v>418</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="D231" s="0" t="s">
-        <v>514</v>
+        <v>419</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5795,13 +4657,10 @@
         <v>1988</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>515</v>
+        <v>420</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>516</v>
-      </c>
-      <c r="D232" s="0" t="s">
-        <v>361</v>
+        <v>421</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5809,13 +4668,10 @@
         <v>1989</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>517</v>
+        <v>422</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="D233" s="0" t="s">
-        <v>519</v>
+        <v>423</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5823,13 +4679,10 @@
         <v>1989</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>520</v>
+        <v>424</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>521</v>
-      </c>
-      <c r="D234" s="0" t="s">
-        <v>377</v>
+        <v>425</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5837,13 +4690,10 @@
         <v>1989</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>522</v>
+        <v>426</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>494</v>
-      </c>
-      <c r="D235" s="0" t="s">
-        <v>493</v>
+        <v>405</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5851,10 +4701,10 @@
         <v>1989</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>523</v>
+        <v>427</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>524</v>
+        <v>428</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5862,10 +4712,10 @@
         <v>1989</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>525</v>
+        <v>429</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>526</v>
+        <v>430</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5873,13 +4723,10 @@
         <v>1989</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>527</v>
+        <v>431</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="D238" s="0" t="s">
-        <v>529</v>
+        <v>432</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5887,13 +4734,10 @@
         <v>1989</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>530</v>
+        <v>433</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>531</v>
-      </c>
-      <c r="D239" s="0" t="s">
-        <v>263</v>
+        <v>434</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5901,13 +4745,10 @@
         <v>1990</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>532</v>
+        <v>435</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>505</v>
-      </c>
-      <c r="D240" s="0" t="s">
-        <v>504</v>
+        <v>413</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5915,10 +4756,10 @@
         <v>1990</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>533</v>
+        <v>436</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>534</v>
+        <v>437</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5926,13 +4767,10 @@
         <v>1990</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>535</v>
+        <v>438</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>536</v>
-      </c>
-      <c r="D242" s="0" t="s">
-        <v>488</v>
+        <v>439</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5940,13 +4778,10 @@
         <v>1990</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>537</v>
+        <v>440</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>538</v>
-      </c>
-      <c r="D243" s="0" t="s">
-        <v>539</v>
+        <v>441</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5954,10 +4789,7 @@
         <v>1990</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>540</v>
-      </c>
-      <c r="D244" s="0" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5965,10 +4797,7 @@
         <v>1990</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="D245" s="0" t="s">
-        <v>542</v>
+        <v>443</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5976,13 +4805,10 @@
         <v>1990</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>543</v>
+        <v>444</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>544</v>
-      </c>
-      <c r="D246" s="0" t="s">
-        <v>545</v>
+        <v>445</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5990,13 +4816,10 @@
         <v>1991</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>546</v>
+        <v>446</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>547</v>
-      </c>
-      <c r="D247" s="0" t="s">
-        <v>424</v>
+        <v>447</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6004,13 +4827,10 @@
         <v>1991</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>548</v>
+        <v>448</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>549</v>
-      </c>
-      <c r="D248" s="0" t="s">
-        <v>535</v>
+        <v>449</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6018,13 +4838,10 @@
         <v>1991</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>551</v>
-      </c>
-      <c r="D249" s="0" t="s">
-        <v>552</v>
+        <v>451</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6032,13 +4849,10 @@
         <v>1991</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>553</v>
+        <v>452</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>554</v>
-      </c>
-      <c r="D250" s="0" t="s">
-        <v>274</v>
+        <v>453</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6046,10 +4860,10 @@
         <v>1991</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>555</v>
+        <v>454</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>556</v>
+        <v>455</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6057,13 +4871,10 @@
         <v>1991</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>557</v>
+        <v>456</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>558</v>
-      </c>
-      <c r="D252" s="0" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6071,10 +4882,7 @@
         <v>1992</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>559</v>
-      </c>
-      <c r="D253" s="0" t="s">
-        <v>517</v>
+        <v>458</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6082,13 +4890,10 @@
         <v>1992</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>560</v>
+        <v>459</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>561</v>
-      </c>
-      <c r="D254" s="0" t="s">
-        <v>542</v>
+        <v>460</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6096,13 +4901,10 @@
         <v>1993</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>562</v>
+        <v>461</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="D255" s="0" t="s">
-        <v>263</v>
+        <v>393</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6110,13 +4912,10 @@
         <v>1993</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>563</v>
+        <v>462</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>564</v>
-      </c>
-      <c r="D256" s="0" t="s">
-        <v>565</v>
+        <v>463</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6124,13 +4923,10 @@
         <v>1993</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>566</v>
+        <v>464</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>567</v>
-      </c>
-      <c r="D257" s="0" t="s">
-        <v>171</v>
+        <v>465</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6138,10 +4934,7 @@
         <v>1993</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>568</v>
-      </c>
-      <c r="D258" s="0" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6149,13 +4942,10 @@
         <v>1993</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>569</v>
+        <v>467</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="D259" s="0" t="s">
-        <v>484</v>
+        <v>357</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6163,13 +4953,10 @@
         <v>1993</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>570</v>
+        <v>468</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="D260" s="0" t="s">
-        <v>571</v>
+        <v>419</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6177,13 +4964,10 @@
         <v>1993</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>572</v>
+        <v>469</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>573</v>
-      </c>
-      <c r="D261" s="0" t="s">
-        <v>574</v>
+        <v>470</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6191,13 +4975,10 @@
         <v>1993</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>575</v>
+        <v>471</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>576</v>
-      </c>
-      <c r="D262" s="0" t="s">
-        <v>327</v>
+        <v>472</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6205,13 +4986,10 @@
         <v>1993</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>577</v>
+        <v>473</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>578</v>
-      </c>
-      <c r="D263" s="0" t="s">
-        <v>269</v>
+        <v>474</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6219,13 +4997,10 @@
         <v>1993</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>579</v>
+        <v>475</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>580</v>
-      </c>
-      <c r="D264" s="0" t="s">
-        <v>581</v>
+        <v>476</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6233,13 +5008,10 @@
         <v>1994</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>582</v>
+        <v>477</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>583</v>
-      </c>
-      <c r="D265" s="0" t="s">
-        <v>584</v>
+        <v>478</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6247,10 +5019,7 @@
         <v>1994</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>585</v>
-      </c>
-      <c r="D266" s="0" t="s">
-        <v>443</v>
+        <v>479</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6258,13 +5027,10 @@
         <v>1994</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>586</v>
+        <v>480</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>587</v>
-      </c>
-      <c r="D267" s="0" t="s">
-        <v>588</v>
+        <v>481</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6272,13 +5038,10 @@
         <v>1994</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>589</v>
+        <v>482</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>590</v>
-      </c>
-      <c r="D268" s="0" t="s">
-        <v>591</v>
+        <v>483</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6286,13 +5049,10 @@
         <v>1994</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>592</v>
+        <v>484</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>593</v>
-      </c>
-      <c r="D269" s="0" t="s">
-        <v>594</v>
+        <v>485</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6300,13 +5060,10 @@
         <v>1995</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>595</v>
+        <v>486</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>596</v>
-      </c>
-      <c r="D270" s="0" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6314,13 +5071,10 @@
         <v>1995</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>597</v>
+        <v>488</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="D271" s="0" t="s">
-        <v>559</v>
+        <v>423</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6328,10 +5082,10 @@
         <v>1995</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>598</v>
+        <v>489</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>599</v>
+        <v>490</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6339,13 +5093,10 @@
         <v>1995</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>600</v>
+        <v>491</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>601</v>
-      </c>
-      <c r="D273" s="0" t="s">
-        <v>602</v>
+        <v>492</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6353,13 +5104,10 @@
         <v>1995</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>603</v>
+        <v>493</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>604</v>
-      </c>
-      <c r="D274" s="0" t="s">
-        <v>605</v>
+        <v>494</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6367,13 +5115,10 @@
         <v>1995</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>606</v>
+        <v>495</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>607</v>
-      </c>
-      <c r="D275" s="0" t="s">
-        <v>608</v>
+        <v>496</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6381,13 +5126,10 @@
         <v>1995</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>609</v>
+        <v>497</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>610</v>
-      </c>
-      <c r="D276" s="0" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6395,13 +5137,10 @@
         <v>1995</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>611</v>
+        <v>499</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>612</v>
-      </c>
-      <c r="D277" s="0" t="s">
-        <v>613</v>
+        <v>500</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6409,13 +5148,10 @@
         <v>1995</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>614</v>
+        <v>501</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>604</v>
-      </c>
-      <c r="D278" s="0" t="s">
-        <v>603</v>
+        <v>494</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6423,13 +5159,10 @@
         <v>1996</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>615</v>
+        <v>502</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>616</v>
-      </c>
-      <c r="D279" s="0" t="s">
-        <v>617</v>
+        <v>503</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6437,10 +5170,10 @@
         <v>1996</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>618</v>
+        <v>504</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>619</v>
+        <v>505</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6448,13 +5181,10 @@
         <v>1996</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>620</v>
+        <v>506</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>621</v>
-      </c>
-      <c r="D281" s="0" t="s">
-        <v>622</v>
+        <v>507</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6462,13 +5192,10 @@
         <v>1996</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>623</v>
+        <v>508</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="D282" s="0" t="s">
-        <v>557</v>
+        <v>325</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6476,13 +5203,10 @@
         <v>1996</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>624</v>
+        <v>509</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>625</v>
-      </c>
-      <c r="D283" s="0" t="s">
-        <v>626</v>
+        <v>510</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6490,13 +5214,10 @@
         <v>1996</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>627</v>
+        <v>511</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>628</v>
-      </c>
-      <c r="D284" s="0" t="s">
-        <v>379</v>
+        <v>512</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6504,13 +5225,10 @@
         <v>1997</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>629</v>
+        <v>513</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>630</v>
-      </c>
-      <c r="D285" s="0" t="s">
-        <v>548</v>
+        <v>514</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6518,13 +5236,10 @@
         <v>1997</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>631</v>
+        <v>515</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>632</v>
-      </c>
-      <c r="D286" s="0" t="s">
-        <v>633</v>
+        <v>516</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6532,13 +5247,10 @@
         <v>1997</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>634</v>
+        <v>517</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>635</v>
-      </c>
-      <c r="D287" s="0" t="s">
-        <v>306</v>
+        <v>518</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6546,13 +5258,10 @@
         <v>1997</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>636</v>
+        <v>519</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="D288" s="0" t="s">
-        <v>638</v>
+        <v>520</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6560,13 +5269,10 @@
         <v>1997</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>639</v>
+        <v>521</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>640</v>
-      </c>
-      <c r="D289" s="0" t="s">
-        <v>614</v>
+        <v>522</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6574,13 +5280,10 @@
         <v>1997</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>641</v>
+        <v>523</v>
       </c>
       <c r="C290" s="0" t="s">
-        <v>642</v>
-      </c>
-      <c r="D290" s="0" t="s">
-        <v>643</v>
+        <v>524</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6588,13 +5291,10 @@
         <v>1997</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>644</v>
+        <v>525</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>645</v>
-      </c>
-      <c r="D291" s="0" t="s">
-        <v>443</v>
+        <v>526</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6602,13 +5302,10 @@
         <v>1997</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>646</v>
+        <v>527</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>647</v>
-      </c>
-      <c r="D292" s="0" t="s">
-        <v>648</v>
+        <v>528</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6616,13 +5313,10 @@
         <v>1997</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>649</v>
+        <v>529</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>650</v>
-      </c>
-      <c r="D293" s="0" t="s">
-        <v>651</v>
+        <v>530</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6630,13 +5324,10 @@
         <v>1998</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>652</v>
+        <v>531</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>653</v>
-      </c>
-      <c r="D294" s="0" t="s">
-        <v>654</v>
+        <v>532</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6644,13 +5335,10 @@
         <v>1998</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>655</v>
+        <v>533</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>656</v>
-      </c>
-      <c r="D295" s="0" t="s">
-        <v>6</v>
+        <v>534</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6658,13 +5346,10 @@
         <v>1998</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>657</v>
+        <v>535</v>
       </c>
       <c r="C296" s="0" t="s">
-        <v>658</v>
-      </c>
-      <c r="D296" s="0" t="s">
-        <v>659</v>
+        <v>536</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6672,10 +5357,10 @@
         <v>1998</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>660</v>
+        <v>537</v>
       </c>
       <c r="C297" s="0" t="s">
-        <v>661</v>
+        <v>538</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6683,13 +5368,10 @@
         <v>1998</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>662</v>
+        <v>539</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>663</v>
-      </c>
-      <c r="D298" s="0" t="s">
-        <v>664</v>
+        <v>540</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6697,13 +5379,10 @@
         <v>1999</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>665</v>
+        <v>541</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>666</v>
-      </c>
-      <c r="D299" s="0" t="s">
-        <v>667</v>
+        <v>542</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6711,13 +5390,10 @@
         <v>1999</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>668</v>
+        <v>543</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>669</v>
-      </c>
-      <c r="D300" s="0" t="s">
-        <v>670</v>
+        <v>544</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6725,13 +5401,10 @@
         <v>1999</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>671</v>
+        <v>545</v>
       </c>
       <c r="C301" s="0" t="s">
-        <v>672</v>
-      </c>
-      <c r="D301" s="0" t="s">
-        <v>442</v>
+        <v>546</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6739,13 +5412,10 @@
         <v>2000</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>673</v>
+        <v>547</v>
       </c>
       <c r="C302" s="0" t="s">
-        <v>674</v>
-      </c>
-      <c r="D302" s="0" t="s">
-        <v>600</v>
+        <v>548</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6753,13 +5423,10 @@
         <v>2000</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>675</v>
+        <v>549</v>
       </c>
       <c r="C303" s="0" t="s">
-        <v>676</v>
-      </c>
-      <c r="D303" s="0" t="s">
-        <v>639</v>
+        <v>550</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6767,13 +5434,10 @@
         <v>2000</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>677</v>
+        <v>551</v>
       </c>
       <c r="C304" s="0" t="s">
-        <v>678</v>
-      </c>
-      <c r="D304" s="0" t="s">
-        <v>679</v>
+        <v>552</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6781,13 +5445,10 @@
         <v>2000</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>680</v>
+        <v>553</v>
       </c>
       <c r="C305" s="0" t="s">
-        <v>681</v>
-      </c>
-      <c r="D305" s="0" t="s">
-        <v>682</v>
+        <v>554</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6795,13 +5456,10 @@
         <v>2000</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>683</v>
+        <v>555</v>
       </c>
       <c r="C306" s="0" t="s">
-        <v>684</v>
-      </c>
-      <c r="D306" s="0" t="s">
-        <v>685</v>
+        <v>556</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6809,13 +5467,10 @@
         <v>2000</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>686</v>
+        <v>557</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>687</v>
-      </c>
-      <c r="D307" s="0" t="s">
-        <v>688</v>
+        <v>558</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6823,13 +5478,10 @@
         <v>2000</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>689</v>
+        <v>559</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>690</v>
-      </c>
-      <c r="D308" s="0" t="s">
-        <v>691</v>
+        <v>560</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6837,13 +5489,10 @@
         <v>2001</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>692</v>
+        <v>561</v>
       </c>
       <c r="C309" s="0" t="s">
-        <v>693</v>
-      </c>
-      <c r="D309" s="0" t="s">
-        <v>694</v>
+        <v>562</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6851,13 +5500,10 @@
         <v>2001</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>695</v>
+        <v>563</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>696</v>
-      </c>
-      <c r="D310" s="0" t="s">
-        <v>697</v>
+        <v>564</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6865,13 +5511,10 @@
         <v>2001</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>698</v>
+        <v>565</v>
       </c>
       <c r="C311" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="D311" s="0" t="s">
-        <v>557</v>
+        <v>325</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6879,13 +5522,10 @@
         <v>2001</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>699</v>
+        <v>566</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D312" s="0" t="s">
-        <v>700</v>
+        <v>82</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6893,13 +5533,10 @@
         <v>2001</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>701</v>
+        <v>567</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>702</v>
-      </c>
-      <c r="D313" s="0" t="s">
-        <v>703</v>
+        <v>568</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6907,13 +5544,10 @@
         <v>2002</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>704</v>
+        <v>569</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>705</v>
-      </c>
-      <c r="D314" s="0" t="s">
-        <v>706</v>
+        <v>570</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6921,13 +5555,10 @@
         <v>2002</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>707</v>
+        <v>571</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>708</v>
-      </c>
-      <c r="D315" s="0" t="s">
-        <v>709</v>
+        <v>572</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6935,13 +5566,10 @@
         <v>2003</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>710</v>
+        <v>573</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>711</v>
-      </c>
-      <c r="D316" s="0" t="s">
-        <v>712</v>
+        <v>574</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6949,13 +5577,10 @@
         <v>2003</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>713</v>
+        <v>575</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>714</v>
-      </c>
-      <c r="D317" s="0" t="s">
-        <v>715</v>
+        <v>576</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6963,13 +5588,10 @@
         <v>2003</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>716</v>
+        <v>577</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>717</v>
-      </c>
-      <c r="D318" s="0" t="s">
-        <v>718</v>
+        <v>578</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6977,13 +5599,10 @@
         <v>2003</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>719</v>
+        <v>579</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>720</v>
-      </c>
-      <c r="D319" s="0" t="s">
-        <v>721</v>
+        <v>580</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6991,13 +5610,10 @@
         <v>2003</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>722</v>
+        <v>581</v>
       </c>
       <c r="C320" s="0" t="s">
-        <v>723</v>
-      </c>
-      <c r="D320" s="0" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7005,13 +5621,10 @@
         <v>2004</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>724</v>
+        <v>583</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>725</v>
-      </c>
-      <c r="D321" s="0" t="s">
-        <v>6</v>
+        <v>584</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7019,13 +5632,10 @@
         <v>2004</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>726</v>
+        <v>585</v>
       </c>
       <c r="C322" s="0" t="s">
-        <v>727</v>
-      </c>
-      <c r="D322" s="0" t="s">
-        <v>6</v>
+        <v>586</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7033,13 +5643,10 @@
         <v>2004</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>728</v>
+        <v>587</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>729</v>
-      </c>
-      <c r="D323" s="0" t="s">
-        <v>730</v>
+        <v>588</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7047,13 +5654,10 @@
         <v>2004</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>731</v>
+        <v>589</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>732</v>
-      </c>
-      <c r="D324" s="0" t="s">
-        <v>733</v>
+        <v>590</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7061,13 +5665,10 @@
         <v>2004</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>734</v>
+        <v>591</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>735</v>
-      </c>
-      <c r="D325" s="0" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7075,13 +5676,10 @@
         <v>2004</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>736</v>
+        <v>593</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>737</v>
-      </c>
-      <c r="D326" s="0" t="s">
-        <v>203</v>
+        <v>594</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7089,13 +5687,10 @@
         <v>2005</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>738</v>
+        <v>595</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>739</v>
-      </c>
-      <c r="D327" s="0" t="s">
-        <v>740</v>
+        <v>596</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7103,13 +5698,10 @@
         <v>2005</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>741</v>
+        <v>597</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>742</v>
-      </c>
-      <c r="D328" s="0" t="s">
-        <v>743</v>
+        <v>598</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7117,13 +5709,10 @@
         <v>2005</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>744</v>
+        <v>599</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>745</v>
-      </c>
-      <c r="D329" s="0" t="s">
-        <v>6</v>
+        <v>600</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7131,13 +5720,10 @@
         <v>2006</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>746</v>
+        <v>601</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>747</v>
-      </c>
-      <c r="D330" s="0" t="s">
-        <v>540</v>
+        <v>602</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7145,13 +5731,10 @@
         <v>2006</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>748</v>
+        <v>603</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>749</v>
-      </c>
-      <c r="D331" s="0" t="s">
-        <v>750</v>
+        <v>604</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7159,13 +5742,10 @@
         <v>2006</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>751</v>
+        <v>605</v>
       </c>
       <c r="C332" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="D332" s="0" t="s">
-        <v>752</v>
+        <v>325</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7173,13 +5753,10 @@
         <v>2006</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>753</v>
+        <v>606</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>754</v>
-      </c>
-      <c r="D333" s="0" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7187,13 +5764,10 @@
         <v>2007</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>755</v>
+        <v>608</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>756</v>
-      </c>
-      <c r="D334" s="0" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7201,13 +5775,10 @@
         <v>2007</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>757</v>
+        <v>610</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="D335" s="0" t="s">
-        <v>759</v>
+        <v>611</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7215,13 +5786,10 @@
         <v>2007</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>760</v>
+        <v>612</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>761</v>
-      </c>
-      <c r="D336" s="0" t="s">
-        <v>762</v>
+        <v>613</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7229,13 +5797,10 @@
         <v>2007</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>763</v>
+        <v>614</v>
       </c>
       <c r="C337" s="0" t="s">
-        <v>764</v>
-      </c>
-      <c r="D337" s="0" t="s">
-        <v>765</v>
+        <v>615</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7243,13 +5808,10 @@
         <v>2007</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>766</v>
+        <v>616</v>
       </c>
       <c r="C338" s="0" t="s">
-        <v>767</v>
-      </c>
-      <c r="D338" s="0" t="s">
-        <v>683</v>
+        <v>617</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7257,13 +5819,10 @@
         <v>2007</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>768</v>
+        <v>618</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>769</v>
-      </c>
-      <c r="D339" s="0" t="s">
-        <v>770</v>
+        <v>619</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7271,13 +5830,10 @@
         <v>2007</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>771</v>
+        <v>620</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>772</v>
-      </c>
-      <c r="D340" s="0" t="s">
-        <v>773</v>
+        <v>621</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7285,13 +5841,10 @@
         <v>2007</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>774</v>
+        <v>622</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>775</v>
-      </c>
-      <c r="D341" s="0" t="s">
-        <v>488</v>
+        <v>623</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7299,13 +5852,10 @@
         <v>2007</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>776</v>
+        <v>624</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>777</v>
-      </c>
-      <c r="D342" s="0" t="s">
-        <v>6</v>
+        <v>625</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7313,13 +5863,10 @@
         <v>2008</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>778</v>
+        <v>626</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>779</v>
-      </c>
-      <c r="D343" s="0" t="s">
-        <v>780</v>
+        <v>627</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7327,13 +5874,10 @@
         <v>2008</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>781</v>
+        <v>628</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>782</v>
-      </c>
-      <c r="D344" s="0" t="s">
-        <v>783</v>
+        <v>629</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7341,13 +5885,10 @@
         <v>2008</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>784</v>
+        <v>630</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>556</v>
-      </c>
-      <c r="D345" s="0" t="s">
-        <v>555</v>
+        <v>455</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7355,13 +5896,10 @@
         <v>2009</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>785</v>
+        <v>631</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>786</v>
-      </c>
-      <c r="D346" s="0" t="s">
-        <v>787</v>
+        <v>632</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7369,13 +5907,10 @@
         <v>2009</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>788</v>
+        <v>633</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>789</v>
-      </c>
-      <c r="D347" s="0" t="s">
-        <v>790</v>
+        <v>634</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7383,13 +5918,10 @@
         <v>2009</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>791</v>
+        <v>635</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>792</v>
-      </c>
-      <c r="D348" s="0" t="s">
-        <v>793</v>
+        <v>636</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7397,13 +5929,10 @@
         <v>2009</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>794</v>
+        <v>637</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>795</v>
-      </c>
-      <c r="D349" s="0" t="s">
-        <v>796</v>
+        <v>638</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7411,13 +5940,10 @@
         <v>2010</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>797</v>
+        <v>639</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>798</v>
-      </c>
-      <c r="D350" s="0" t="s">
-        <v>799</v>
+        <v>640</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7425,13 +5951,10 @@
         <v>2010</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>800</v>
+        <v>641</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>801</v>
-      </c>
-      <c r="D351" s="0" t="s">
-        <v>802</v>
+        <v>642</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7439,13 +5962,10 @@
         <v>2011</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>803</v>
+        <v>643</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>804</v>
-      </c>
-      <c r="D352" s="0" t="s">
-        <v>600</v>
+        <v>644</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7453,13 +5973,10 @@
         <v>2011</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>805</v>
+        <v>645</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>786</v>
-      </c>
-      <c r="D353" s="0" t="s">
-        <v>806</v>
+        <v>632</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7467,13 +5984,10 @@
         <v>2011</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>807</v>
+        <v>646</v>
       </c>
       <c r="C354" s="0" t="s">
-        <v>808</v>
-      </c>
-      <c r="D354" s="0" t="s">
-        <v>809</v>
+        <v>647</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7481,13 +5995,10 @@
         <v>2011</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>810</v>
+        <v>648</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>811</v>
-      </c>
-      <c r="D355" s="0" t="s">
-        <v>812</v>
+        <v>649</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7495,13 +6006,10 @@
         <v>2011</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>813</v>
+        <v>650</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>814</v>
-      </c>
-      <c r="D356" s="0" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7509,13 +6017,10 @@
         <v>2011</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>347</v>
+        <v>284</v>
       </c>
       <c r="C357" s="0" t="s">
-        <v>815</v>
-      </c>
-      <c r="D357" s="0" t="s">
-        <v>816</v>
+        <v>652</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7523,13 +6028,10 @@
         <v>2012</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>817</v>
+        <v>653</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>818</v>
-      </c>
-      <c r="D358" s="0" t="s">
-        <v>819</v>
+        <v>654</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7537,13 +6039,10 @@
         <v>2012</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>820</v>
+        <v>655</v>
       </c>
       <c r="C359" s="0" t="s">
-        <v>821</v>
-      </c>
-      <c r="D359" s="0" t="s">
-        <v>822</v>
+        <v>656</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7551,13 +6050,10 @@
         <v>2012</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>823</v>
+        <v>657</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>824</v>
-      </c>
-      <c r="D360" s="0" t="s">
-        <v>825</v>
+        <v>658</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7565,13 +6061,10 @@
         <v>2012</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>826</v>
+        <v>659</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>827</v>
-      </c>
-      <c r="D361" s="0" t="s">
-        <v>828</v>
+        <v>660</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7579,13 +6072,10 @@
         <v>2014</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>829</v>
+        <v>661</v>
       </c>
       <c r="C362" s="0" t="s">
-        <v>830</v>
-      </c>
-      <c r="D362" s="0" t="s">
-        <v>831</v>
+        <v>662</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7593,13 +6083,10 @@
         <v>2014</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>832</v>
+        <v>663</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>833</v>
-      </c>
-      <c r="D363" s="0" t="s">
-        <v>609</v>
+        <v>664</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7607,13 +6094,10 @@
         <v>2014</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>834</v>
+        <v>665</v>
       </c>
       <c r="C364" s="0" t="s">
-        <v>835</v>
-      </c>
-      <c r="D364" s="0" t="s">
-        <v>836</v>
+        <v>666</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7621,13 +6105,10 @@
         <v>2014</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>837</v>
+        <v>667</v>
       </c>
       <c r="C365" s="0" t="s">
-        <v>838</v>
-      </c>
-      <c r="D365" s="0" t="s">
-        <v>654</v>
+        <v>668</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7635,13 +6116,10 @@
         <v>2016</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>839</v>
+        <v>669</v>
       </c>
       <c r="C366" s="0" t="s">
-        <v>840</v>
-      </c>
-      <c r="D366" s="0" t="s">
-        <v>841</v>
+        <v>670</v>
       </c>
     </row>
   </sheetData>
